--- a/arxiv_paper_df_by_theme.xlsx
+++ b/arxiv_paper_df_by_theme.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Downloads\awesome-ai-paper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D442E5-A126-466B-B8C8-68673D4D7CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="315" yWindow="2790" windowWidth="18840" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="492">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -94,9 +100,6 @@
     <t>Convolutional Neural Networks for Sentence Classification</t>
   </si>
   <si>
-    <t>Convolutional Neural Networks using Logarithmic Data Representation</t>
-  </si>
-  <si>
     <t>Permutation Invariant Training of Deep Models for Speaker-Independent Multi-talker Speech Separation</t>
   </si>
   <si>
@@ -721,9 +724,6 @@
     <t>Yoon Kim et al</t>
   </si>
   <si>
-    <t>Daisuke Miyashita et al</t>
-  </si>
-  <si>
     <t>Dong Yu et al</t>
   </si>
   <si>
@@ -1096,9 +1096,6 @@
     <t>[Link](http://arxiv.org/abs/1408.5882v2)</t>
   </si>
   <si>
-    <t>[Link](http://arxiv.org/abs/1603.01025v2)</t>
-  </si>
-  <si>
     <t>[Link](http://arxiv.org/abs/1607.00325v2)</t>
   </si>
   <si>
@@ -1496,16 +1493,19 @@
   </si>
   <si>
     <t>[Link](http://arxiv.org/abs/2012.12877v2)</t>
+  </si>
+  <si>
+    <t>[Link](https://www.cs.toronto.edu/~rsalakhu/papers/srivastava14a.pdf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,25 +1557,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1613,7 +1624,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1647,6 +1658,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1681,9 +1693,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1856,14 +1869,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B137"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1887,8 +1902,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
@@ -1901,20 +1916,20 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="2">
         <v>41640</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1925,67 +1940,70 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2">
         <v>41876</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2">
-        <v>42432</v>
+        <v>42552</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
       <c r="F5" s="2">
-        <v>42552</v>
+        <v>42894</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1994,22 +2012,22 @@
         <v>162</v>
       </c>
       <c r="F6" s="2">
-        <v>42894</v>
+        <v>43040</v>
       </c>
       <c r="G6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -2018,67 +2036,69 @@
         <v>163</v>
       </c>
       <c r="F7" s="2">
-        <v>43040</v>
+        <v>43185</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>164</v>
-      </c>
       <c r="F8" s="2">
-        <v>43185</v>
+        <v>43539</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
       </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
       <c r="F9" s="2">
-        <v>43539</v>
+        <v>44133</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -2087,158 +2107,156 @@
         <v>165</v>
       </c>
       <c r="F10" s="2">
-        <v>44133</v>
+        <v>37438</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>166</v>
-      </c>
       <c r="F11" s="2">
-        <v>37438</v>
+        <v>43210</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
+      <c r="E12" t="s">
+        <v>166</v>
+      </c>
       <c r="F12" s="2">
-        <v>43210</v>
+        <v>44470</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" t="s">
-        <v>167</v>
-      </c>
       <c r="F13" s="2">
-        <v>44470</v>
+        <v>41290</v>
       </c>
       <c r="G13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="2">
-        <v>41290</v>
+        <v>41426</v>
       </c>
       <c r="G14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="2">
-        <v>41426</v>
+        <v>43176</v>
       </c>
       <c r="G15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
+      <c r="E16" t="s">
+        <v>167</v>
+      </c>
       <c r="F16" s="2">
-        <v>43176</v>
+        <v>43331</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H16" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
@@ -2247,22 +2265,22 @@
         <v>168</v>
       </c>
       <c r="F17" s="2">
-        <v>43331</v>
+        <v>43704</v>
       </c>
       <c r="G17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
@@ -2271,22 +2289,22 @@
         <v>169</v>
       </c>
       <c r="F18" s="2">
-        <v>43704</v>
+        <v>44304</v>
       </c>
       <c r="G18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H18" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
@@ -2295,69 +2313,69 @@
         <v>170</v>
       </c>
       <c r="F19" s="2">
-        <v>44304</v>
+        <v>44350</v>
       </c>
       <c r="G19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="E20" t="s">
-        <v>171</v>
-      </c>
       <c r="F20" s="2">
-        <v>44350</v>
+        <v>45070</v>
       </c>
       <c r="G20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H20" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
       </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
       <c r="F21" s="2">
-        <v>45070</v>
+        <v>42461</v>
       </c>
       <c r="G21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H21" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
@@ -2366,22 +2384,22 @@
         <v>172</v>
       </c>
       <c r="F22" s="2">
-        <v>42461</v>
+        <v>43628</v>
       </c>
       <c r="G22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H22" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -2390,67 +2408,69 @@
         <v>173</v>
       </c>
       <c r="F23" s="2">
-        <v>43628</v>
+        <v>43990</v>
       </c>
       <c r="G23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
       </c>
-      <c r="E24" t="s">
-        <v>174</v>
-      </c>
       <c r="F24" s="2">
-        <v>43990</v>
+        <v>44054</v>
       </c>
       <c r="G24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H24" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
       </c>
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
       <c r="F25" s="2">
-        <v>44054</v>
+        <v>44470</v>
       </c>
       <c r="G25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H25" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -2459,24 +2479,22 @@
         <v>175</v>
       </c>
       <c r="F26" s="2">
-        <v>44470</v>
+        <v>39177</v>
       </c>
       <c r="G26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
@@ -2485,22 +2503,22 @@
         <v>176</v>
       </c>
       <c r="F27" s="2">
-        <v>39177</v>
+        <v>41883</v>
       </c>
       <c r="G27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
@@ -2509,328 +2527,328 @@
         <v>177</v>
       </c>
       <c r="F28" s="2">
-        <v>41883</v>
+        <v>41892</v>
       </c>
       <c r="G28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>51</v>
       </c>
-      <c r="E29" t="s">
-        <v>178</v>
-      </c>
       <c r="F29" s="2">
-        <v>41892</v>
+        <v>42256</v>
       </c>
       <c r="G29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1"/>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="2">
-        <v>42256</v>
+        <v>42370</v>
       </c>
       <c r="G30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H30" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="2">
-        <v>42370</v>
+        <v>42639</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H31" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
       </c>
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
       <c r="F32" s="2">
-        <v>42639</v>
+        <v>42854</v>
       </c>
       <c r="G32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H32" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>55</v>
       </c>
-      <c r="E33" t="s">
-        <v>179</v>
-      </c>
       <c r="F33" s="2">
-        <v>42854</v>
+        <v>42881</v>
       </c>
       <c r="G33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H33" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="2">
-        <v>42881</v>
+        <v>42898</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H34" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
         <v>57</v>
       </c>
       <c r="F35" s="2">
-        <v>42898</v>
+        <v>42939</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1"/>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="2">
-        <v>42939</v>
+        <v>43146</v>
       </c>
       <c r="G36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H36" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="2">
-        <v>43146</v>
+        <v>43191</v>
       </c>
       <c r="G37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H37" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
+      <c r="E38" t="s">
+        <v>179</v>
+      </c>
       <c r="F38" s="2">
-        <v>43191</v>
+        <v>43262</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H38" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
         <v>61</v>
       </c>
-      <c r="E39" t="s">
-        <v>180</v>
-      </c>
       <c r="F39" s="2">
-        <v>43262</v>
+        <v>43384</v>
       </c>
       <c r="G39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H39" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>62</v>
       </c>
+      <c r="E40" t="s">
+        <v>180</v>
+      </c>
       <c r="F40" s="2">
-        <v>43384</v>
+        <v>43617</v>
       </c>
       <c r="G40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H40" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
         <v>63</v>
       </c>
-      <c r="E41" t="s">
-        <v>181</v>
-      </c>
       <c r="F41" s="2">
-        <v>43617</v>
+        <v>43670</v>
       </c>
       <c r="G41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H41" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
       </c>
+      <c r="E42" t="s">
+        <v>181</v>
+      </c>
       <c r="F42" s="2">
-        <v>43670</v>
+        <v>43721</v>
       </c>
       <c r="G42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H42" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
         <v>65</v>
@@ -2839,112 +2857,112 @@
         <v>182</v>
       </c>
       <c r="F43" s="2">
-        <v>43721</v>
+        <v>43761</v>
       </c>
       <c r="G43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H43" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
         <v>66</v>
       </c>
-      <c r="E44" t="s">
-        <v>183</v>
-      </c>
       <c r="F44" s="2">
-        <v>43761</v>
+        <v>43767</v>
       </c>
       <c r="G44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H44" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
         <v>67</v>
       </c>
+      <c r="E45" t="s">
+        <v>183</v>
+      </c>
       <c r="F45" s="2">
-        <v>43767</v>
+        <v>43831</v>
       </c>
       <c r="G45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H45" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
         <v>68</v>
       </c>
-      <c r="E46" t="s">
-        <v>184</v>
-      </c>
       <c r="F46" s="2">
-        <v>43831</v>
+        <v>43938</v>
       </c>
       <c r="G46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H46" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
       </c>
+      <c r="E47" t="s">
+        <v>184</v>
+      </c>
       <c r="F47" s="2">
-        <v>43938</v>
+        <v>44442</v>
       </c>
       <c r="G47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H47" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
       <c r="C48">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
         <v>70</v>
@@ -2953,22 +2971,22 @@
         <v>185</v>
       </c>
       <c r="F48" s="2">
-        <v>44442</v>
+        <v>44562</v>
       </c>
       <c r="G48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H48" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
       <c r="C49">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
         <v>71</v>
@@ -2977,46 +2995,46 @@
         <v>186</v>
       </c>
       <c r="F49" s="2">
-        <v>44562</v>
+        <v>44667</v>
       </c>
       <c r="G49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H49" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
       <c r="C50">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
         <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F50" s="2">
-        <v>44667</v>
+        <v>44842</v>
       </c>
       <c r="G50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H50" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
       <c r="C51">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
         <v>73</v>
@@ -3025,22 +3043,22 @@
         <v>187</v>
       </c>
       <c r="F51" s="2">
-        <v>44842</v>
+        <v>44894</v>
       </c>
       <c r="G51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H51" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
       <c r="C52">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
         <v>74</v>
@@ -3049,22 +3067,22 @@
         <v>188</v>
       </c>
       <c r="F52" s="2">
-        <v>44894</v>
+        <v>44915</v>
       </c>
       <c r="G52" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H52" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>52</v>
       </c>
       <c r="C53">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
         <v>75</v>
@@ -3073,138 +3091,138 @@
         <v>189</v>
       </c>
       <c r="F53" s="2">
-        <v>44915</v>
+        <v>44927</v>
       </c>
       <c r="G53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H53" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>53</v>
       </c>
       <c r="C54">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
         <v>76</v>
       </c>
-      <c r="E54" t="s">
-        <v>190</v>
-      </c>
       <c r="F54" s="2">
-        <v>44927</v>
+        <v>44984</v>
       </c>
       <c r="G54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H54" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>54</v>
       </c>
       <c r="C55">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
         <v>77</v>
       </c>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
       <c r="F55" s="2">
-        <v>44984</v>
+        <v>45022</v>
       </c>
       <c r="G55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H55" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>55</v>
       </c>
       <c r="C56">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
         <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F56" s="2">
-        <v>45022</v>
+        <v>45072</v>
       </c>
       <c r="G56" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H56" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="1"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>56</v>
       </c>
       <c r="C57">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
         <v>79</v>
       </c>
-      <c r="E57" t="s">
-        <v>189</v>
-      </c>
       <c r="F57" s="2">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="G57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B58" s="1">
         <v>57</v>
       </c>
       <c r="C58">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
         <v>80</v>
       </c>
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
       <c r="F58" s="2">
-        <v>45073</v>
+        <v>39234</v>
       </c>
       <c r="G58" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>58</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
@@ -3213,22 +3231,24 @@
         <v>192</v>
       </c>
       <c r="F59" s="2">
-        <v>39234</v>
+        <v>42247</v>
       </c>
       <c r="G59" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H59" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B60" s="1">
         <v>59</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
         <v>82</v>
@@ -3237,24 +3257,22 @@
         <v>193</v>
       </c>
       <c r="F60" s="2">
-        <v>42247</v>
+        <v>42803</v>
       </c>
       <c r="G60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H60" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>60</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s">
         <v>83</v>
@@ -3263,165 +3281,165 @@
         <v>194</v>
       </c>
       <c r="F61" s="2">
-        <v>42803</v>
+        <v>42938</v>
       </c>
       <c r="G61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H61" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>61</v>
       </c>
       <c r="C62">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="D62" t="s">
         <v>84</v>
       </c>
-      <c r="E62" t="s">
-        <v>195</v>
-      </c>
       <c r="F62" s="2">
-        <v>42938</v>
+        <v>44355</v>
       </c>
       <c r="G62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H62" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B63" s="1">
         <v>62</v>
       </c>
       <c r="C63">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
         <v>85</v>
       </c>
       <c r="F63" s="2">
-        <v>44355</v>
+        <v>42706</v>
       </c>
       <c r="G63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H63" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B64" s="1">
         <v>63</v>
       </c>
       <c r="C64">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
         <v>86</v>
       </c>
+      <c r="E64" t="s">
+        <v>195</v>
+      </c>
       <c r="F64" s="2">
-        <v>42706</v>
+        <v>33298</v>
       </c>
       <c r="G64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H64" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" s="1">
         <v>64</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
         <v>87</v>
       </c>
-      <c r="E65" t="s">
-        <v>196</v>
-      </c>
       <c r="F65" s="2">
-        <v>33298</v>
+        <v>44292</v>
       </c>
       <c r="G65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H65" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1" t="s">
-        <v>16</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B66" s="1">
         <v>65</v>
       </c>
       <c r="C66">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>196</v>
       </c>
       <c r="F66" s="2">
-        <v>44292</v>
+        <v>38949</v>
       </c>
       <c r="G66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H66" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>66</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
         <v>197</v>
       </c>
       <c r="F67" s="2">
-        <v>38949</v>
+        <v>42458</v>
       </c>
       <c r="G67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H67" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>67</v>
       </c>
       <c r="C68">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
         <v>89</v>
@@ -3430,72 +3448,72 @@
         <v>198</v>
       </c>
       <c r="F68" s="2">
-        <v>42458</v>
+        <v>43926</v>
       </c>
       <c r="G68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H68" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>68</v>
       </c>
       <c r="C69">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D69" t="s">
         <v>90</v>
       </c>
       <c r="E69" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="F69" s="2">
-        <v>43926</v>
+        <v>44607</v>
       </c>
       <c r="G69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H69" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B70" s="1">
         <v>69</v>
       </c>
       <c r="C70">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
         <v>91</v>
       </c>
       <c r="E70" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F70" s="2">
-        <v>44607</v>
+        <v>42072</v>
       </c>
       <c r="G70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H70" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>70</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D71" t="s">
         <v>92</v>
@@ -3504,67 +3522,67 @@
         <v>200</v>
       </c>
       <c r="F71" s="2">
-        <v>42072</v>
+        <v>43505</v>
       </c>
       <c r="G71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H71" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="1"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>71</v>
       </c>
       <c r="C72">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D72" t="s">
         <v>93</v>
       </c>
-      <c r="E72" t="s">
-        <v>201</v>
-      </c>
       <c r="F72" s="2">
-        <v>43505</v>
+        <v>43593</v>
       </c>
       <c r="G72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H72" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="1"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>72</v>
       </c>
       <c r="C73">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D73" t="s">
         <v>94</v>
       </c>
+      <c r="E73" t="s">
+        <v>201</v>
+      </c>
       <c r="F73" s="2">
-        <v>43593</v>
+        <v>43702</v>
       </c>
       <c r="G73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H73" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>73</v>
       </c>
       <c r="C74">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
         <v>95</v>
@@ -3573,225 +3591,225 @@
         <v>202</v>
       </c>
       <c r="F74" s="2">
-        <v>43702</v>
+        <v>43740</v>
       </c>
       <c r="G74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H74" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="1"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>74</v>
       </c>
       <c r="C75">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
         <v>96</v>
       </c>
-      <c r="E75" t="s">
-        <v>203</v>
-      </c>
       <c r="F75" s="2">
-        <v>43740</v>
+        <v>43797</v>
       </c>
       <c r="G75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H75" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="1"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>75</v>
       </c>
       <c r="C76">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D76" t="s">
         <v>97</v>
       </c>
       <c r="F76" s="2">
-        <v>43797</v>
+        <v>43886</v>
       </c>
       <c r="G76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H76" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="1"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>76</v>
       </c>
       <c r="C77">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
         <v>98</v>
       </c>
+      <c r="E77" t="s">
+        <v>164</v>
+      </c>
       <c r="F77" s="2">
-        <v>43886</v>
+        <v>44196</v>
       </c>
       <c r="G77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H77" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="1"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B78" s="1">
         <v>77</v>
       </c>
       <c r="C78">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>99</v>
       </c>
       <c r="E78" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="F78" s="2">
-        <v>44196</v>
+        <v>41501</v>
       </c>
       <c r="G78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H78" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>78</v>
       </c>
       <c r="C79">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
         <v>100</v>
       </c>
-      <c r="E79" t="s">
-        <v>204</v>
-      </c>
       <c r="F79" s="2">
-        <v>41501</v>
+        <v>42445</v>
       </c>
       <c r="G79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H79" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>79</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
         <v>101</v>
       </c>
+      <c r="E80" t="s">
+        <v>204</v>
+      </c>
       <c r="F80" s="2">
-        <v>42445</v>
+        <v>42541</v>
       </c>
       <c r="G80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H80" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>80</v>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
         <v>102</v>
       </c>
-      <c r="E81" t="s">
-        <v>205</v>
-      </c>
       <c r="F81" s="2">
-        <v>42541</v>
+        <v>42635</v>
       </c>
       <c r="G81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H81" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>81</v>
       </c>
       <c r="C82">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D82" t="s">
         <v>103</v>
       </c>
       <c r="F82" s="2">
-        <v>42635</v>
+        <v>43084</v>
       </c>
       <c r="G82" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H82" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>82</v>
       </c>
       <c r="C83">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D83" t="s">
         <v>104</v>
       </c>
+      <c r="E83" t="s">
+        <v>205</v>
+      </c>
       <c r="F83" s="2">
-        <v>43084</v>
+        <v>43425</v>
       </c>
       <c r="G83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H83" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>83</v>
       </c>
       <c r="C84">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D84" t="s">
         <v>105</v>
@@ -3800,130 +3818,130 @@
         <v>206</v>
       </c>
       <c r="F84" s="2">
-        <v>43425</v>
+        <v>43658</v>
       </c>
       <c r="G84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H84" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>84</v>
       </c>
       <c r="C85">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D85" t="s">
         <v>106</v>
       </c>
-      <c r="E85" t="s">
-        <v>207</v>
-      </c>
       <c r="F85" s="2">
-        <v>43658</v>
+        <v>43720</v>
       </c>
       <c r="G85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H85" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>85</v>
       </c>
       <c r="C86">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D86" t="s">
         <v>107</v>
       </c>
       <c r="F86" s="2">
-        <v>43720</v>
+        <v>43790</v>
       </c>
       <c r="G86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H86" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>86</v>
       </c>
       <c r="C87">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D87" t="s">
         <v>108</v>
       </c>
       <c r="F87" s="2">
-        <v>43790</v>
+        <v>43897</v>
       </c>
       <c r="G87" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H87" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>87</v>
       </c>
       <c r="C88">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
       </c>
       <c r="F88" s="2">
-        <v>43897</v>
+        <v>43921</v>
       </c>
       <c r="G88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H88" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>88</v>
       </c>
       <c r="C89">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
         <v>110</v>
       </c>
+      <c r="E89" t="s">
+        <v>207</v>
+      </c>
       <c r="F89" s="2">
-        <v>43921</v>
+        <v>43941</v>
       </c>
       <c r="G89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>89</v>
       </c>
       <c r="C90">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D90" t="s">
         <v>111</v>
@@ -3932,22 +3950,22 @@
         <v>208</v>
       </c>
       <c r="F90" s="2">
-        <v>43941</v>
+        <v>44196</v>
       </c>
       <c r="G90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H90" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="1"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>90</v>
       </c>
       <c r="C91">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D91" t="s">
         <v>112</v>
@@ -3956,22 +3974,22 @@
         <v>209</v>
       </c>
       <c r="F91" s="2">
-        <v>44196</v>
+        <v>44201</v>
       </c>
       <c r="G91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H91" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>91</v>
       </c>
       <c r="C92">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D92" t="s">
         <v>113</v>
@@ -3980,91 +3998,91 @@
         <v>210</v>
       </c>
       <c r="F92" s="2">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="G92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H92" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>92</v>
       </c>
       <c r="C93">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
       </c>
       <c r="E93" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="F93" s="2">
-        <v>44280</v>
+        <v>44362</v>
       </c>
       <c r="G93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H93" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>93</v>
       </c>
       <c r="C94">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D94" t="s">
         <v>115</v>
       </c>
-      <c r="E94" t="s">
-        <v>175</v>
-      </c>
       <c r="F94" s="2">
-        <v>44362</v>
+        <v>44632</v>
       </c>
       <c r="G94" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H94" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>94</v>
       </c>
       <c r="C95">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D95" t="s">
         <v>116</v>
       </c>
+      <c r="E95" t="s">
+        <v>211</v>
+      </c>
       <c r="F95" s="2">
-        <v>44632</v>
+        <v>44641</v>
       </c>
       <c r="G95" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H95" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>95</v>
       </c>
       <c r="C96">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -4073,22 +4091,22 @@
         <v>212</v>
       </c>
       <c r="F96" s="2">
-        <v>44641</v>
+        <v>44706</v>
       </c>
       <c r="G96" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H96" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>96</v>
       </c>
       <c r="C97">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -4097,46 +4115,46 @@
         <v>213</v>
       </c>
       <c r="F97" s="2">
-        <v>44706</v>
+        <v>44716</v>
       </c>
       <c r="G97" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H97" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>97</v>
       </c>
       <c r="C98">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D98" t="s">
         <v>119</v>
       </c>
       <c r="E98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F98" s="2">
-        <v>44716</v>
+        <v>44831</v>
       </c>
       <c r="G98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H98" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
       <c r="B99" s="1">
         <v>98</v>
       </c>
       <c r="C99">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D99" t="s">
         <v>120</v>
@@ -4145,248 +4163,248 @@
         <v>214</v>
       </c>
       <c r="F99" s="2">
-        <v>44831</v>
+        <v>44953</v>
       </c>
       <c r="G99" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H99" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="1"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
       <c r="B100" s="1">
         <v>99</v>
       </c>
       <c r="C100">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D100" t="s">
         <v>121</v>
       </c>
-      <c r="E100" t="s">
-        <v>215</v>
-      </c>
       <c r="F100" s="2">
-        <v>44953</v>
+        <v>44961</v>
       </c>
       <c r="G100" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H100" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
       <c r="B101" s="1">
         <v>100</v>
       </c>
       <c r="C101">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D101" t="s">
         <v>122</v>
       </c>
+      <c r="E101" t="s">
+        <v>215</v>
+      </c>
       <c r="F101" s="2">
-        <v>44961</v>
+        <v>45034</v>
       </c>
       <c r="G101" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H101" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="1"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
       <c r="B102" s="1">
         <v>101</v>
       </c>
       <c r="C102">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D102" t="s">
         <v>123</v>
       </c>
-      <c r="E102" t="s">
-        <v>216</v>
-      </c>
       <c r="F102" s="2">
-        <v>45034</v>
+        <v>45064</v>
       </c>
       <c r="G102" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H102" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="1"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
       <c r="B103" s="1">
         <v>102</v>
       </c>
       <c r="C103">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D103" t="s">
         <v>124</v>
       </c>
       <c r="F103" s="2">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="G103" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H103" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="1"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
       <c r="B104" s="1">
         <v>103</v>
       </c>
       <c r="C104">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D104" t="s">
         <v>125</v>
       </c>
+      <c r="E104" t="s">
+        <v>190</v>
+      </c>
       <c r="F104" s="2">
         <v>45069</v>
       </c>
       <c r="G104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H104" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="1"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
       <c r="B105" s="1">
         <v>104</v>
       </c>
       <c r="C105">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D105" t="s">
         <v>126</v>
       </c>
-      <c r="E105" t="s">
-        <v>191</v>
-      </c>
       <c r="F105" s="2">
-        <v>45069</v>
+        <v>45075</v>
       </c>
       <c r="G105" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="H105" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="1"/>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B106" s="1">
         <v>105</v>
       </c>
       <c r="C106">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
         <v>127</v>
       </c>
       <c r="F106" s="2">
-        <v>45075</v>
+        <v>42984</v>
       </c>
       <c r="G106" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="H106" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="1" t="s">
-        <v>20</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
       </c>
       <c r="C107">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
         <v>128</v>
       </c>
+      <c r="E107" t="s">
+        <v>216</v>
+      </c>
       <c r="F107" s="2">
-        <v>42984</v>
+        <v>41627</v>
       </c>
       <c r="G107" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H107" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
       <c r="B108" s="1">
         <v>107</v>
       </c>
       <c r="C108">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D108" t="s">
         <v>129</v>
       </c>
-      <c r="E108" t="s">
-        <v>217</v>
-      </c>
       <c r="F108" s="2">
-        <v>41627</v>
+        <v>42936</v>
       </c>
       <c r="G108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H108" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="1"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
       <c r="B109" s="1">
         <v>108</v>
       </c>
       <c r="C109">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
         <v>130</v>
       </c>
+      <c r="E109" t="s">
+        <v>217</v>
+      </c>
       <c r="F109" s="2">
-        <v>42936</v>
+        <v>43014</v>
       </c>
       <c r="G109" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H109" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="1"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
       <c r="B110" s="1">
         <v>109</v>
       </c>
       <c r="C110">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D110" t="s">
         <v>131</v>
@@ -4395,22 +4413,22 @@
         <v>218</v>
       </c>
       <c r="F110" s="2">
-        <v>43014</v>
+        <v>43070</v>
       </c>
       <c r="G110" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H110" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="1"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
       <c r="B111" s="1">
         <v>110</v>
       </c>
       <c r="C111">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D111" t="s">
         <v>132</v>
@@ -4419,205 +4437,207 @@
         <v>219</v>
       </c>
       <c r="F111" s="2">
-        <v>43070</v>
+        <v>43157</v>
       </c>
       <c r="G111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H111" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="1"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
       <c r="B112" s="1">
         <v>111</v>
       </c>
       <c r="C112">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D112" t="s">
         <v>133</v>
       </c>
-      <c r="E112" t="s">
-        <v>220</v>
-      </c>
       <c r="F112" s="2">
-        <v>43157</v>
+        <v>43929</v>
       </c>
       <c r="G112" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H112" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="1"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
       <c r="B113" s="1">
         <v>112</v>
       </c>
       <c r="C113">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D113" t="s">
         <v>134</v>
       </c>
+      <c r="E113" t="s">
+        <v>220</v>
+      </c>
       <c r="F113" s="2">
-        <v>43929</v>
+        <v>44078</v>
       </c>
       <c r="G113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H113" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="1"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
       <c r="B114" s="1">
         <v>113</v>
       </c>
       <c r="C114">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D114" t="s">
         <v>135</v>
       </c>
-      <c r="E114" t="s">
-        <v>221</v>
-      </c>
       <c r="F114" s="2">
-        <v>44078</v>
+        <v>44462</v>
       </c>
       <c r="G114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H114" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="1"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
       <c r="B115" s="1">
         <v>114</v>
       </c>
       <c r="C115">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D115" t="s">
         <v>136</v>
       </c>
       <c r="F115" s="2">
-        <v>44462</v>
+        <v>44481</v>
       </c>
       <c r="G115" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H115" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="1"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
       <c r="B116" s="1">
         <v>115</v>
       </c>
       <c r="C116">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D116" t="s">
         <v>137</v>
       </c>
+      <c r="E116" t="s">
+        <v>221</v>
+      </c>
       <c r="F116" s="2">
-        <v>44481</v>
+        <v>44562</v>
       </c>
       <c r="G116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H116" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="1"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
       <c r="B117" s="1">
         <v>116</v>
       </c>
       <c r="C117">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D117" t="s">
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F117" s="2">
-        <v>44562</v>
+        <v>44713</v>
       </c>
       <c r="G117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H117" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="1"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
       <c r="B118" s="1">
         <v>117</v>
       </c>
       <c r="C118">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D118" t="s">
         <v>139</v>
       </c>
       <c r="E118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F118" s="2">
-        <v>44713</v>
+        <v>44797</v>
       </c>
       <c r="G118" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H118" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="1"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
       <c r="B119" s="1">
         <v>118</v>
       </c>
       <c r="C119">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D119" t="s">
         <v>140</v>
       </c>
       <c r="E119" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F119" s="2">
-        <v>44797</v>
+        <v>44951</v>
       </c>
       <c r="G119" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H119" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="1"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B120" s="1">
         <v>119</v>
       </c>
       <c r="C120">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="D120" t="s">
         <v>141</v>
@@ -4626,24 +4646,22 @@
         <v>223</v>
       </c>
       <c r="F120" s="2">
-        <v>44951</v>
+        <v>43466</v>
       </c>
       <c r="G120" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H120" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
       <c r="B121" s="1">
         <v>120</v>
       </c>
       <c r="C121">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D121" t="s">
         <v>142</v>
@@ -4652,166 +4670,166 @@
         <v>224</v>
       </c>
       <c r="F121" s="2">
-        <v>43466</v>
+        <v>43514</v>
       </c>
       <c r="G121" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H121" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="1"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
       <c r="B122" s="1">
         <v>121</v>
       </c>
       <c r="C122">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D122" t="s">
         <v>143</v>
       </c>
       <c r="E122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F122" s="2">
-        <v>43514</v>
+        <v>43517</v>
       </c>
       <c r="G122" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H122" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="1"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
       <c r="B123" s="1">
         <v>122</v>
       </c>
       <c r="C123">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D123" t="s">
         <v>144</v>
       </c>
       <c r="E123" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="F123" s="2">
-        <v>43517</v>
+        <v>43566</v>
       </c>
       <c r="G123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H123" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="1"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
       <c r="B124" s="1">
         <v>123</v>
       </c>
       <c r="C124">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D124" t="s">
         <v>145</v>
       </c>
       <c r="E124" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="F124" s="2">
-        <v>43566</v>
+        <v>43609</v>
       </c>
       <c r="G124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H124" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="1"/>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
       <c r="B125" s="1">
         <v>124</v>
       </c>
       <c r="C125">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D125" t="s">
         <v>146</v>
       </c>
       <c r="E125" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="F125" s="2">
-        <v>43609</v>
+        <v>43935</v>
       </c>
       <c r="G125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H125" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="1"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
       <c r="B126" s="1">
         <v>125</v>
       </c>
       <c r="C126">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D126" t="s">
         <v>147</v>
       </c>
       <c r="E126" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F126" s="2">
-        <v>43935</v>
+        <v>43983</v>
       </c>
       <c r="G126" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H126" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="1"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
       <c r="B127" s="1">
         <v>126</v>
       </c>
       <c r="C127">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D127" t="s">
         <v>148</v>
       </c>
       <c r="E127" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="F127" s="2">
-        <v>43983</v>
+        <v>44033</v>
       </c>
       <c r="G127" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H127" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="1"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
       <c r="B128" s="1">
         <v>127</v>
       </c>
       <c r="C128">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D128" t="s">
         <v>149</v>
@@ -4820,177 +4838,177 @@
         <v>227</v>
       </c>
       <c r="F128" s="2">
-        <v>44033</v>
+        <v>44044</v>
       </c>
       <c r="G128" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H128" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="1"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
       <c r="B129" s="1">
         <v>128</v>
       </c>
       <c r="C129">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D129" t="s">
         <v>150</v>
       </c>
-      <c r="E129" t="s">
-        <v>228</v>
-      </c>
       <c r="F129" s="2">
-        <v>44044</v>
+        <v>44262</v>
       </c>
       <c r="G129" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H129" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="1"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B130" s="1">
         <v>129</v>
       </c>
       <c r="C130">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
         <v>151</v>
       </c>
       <c r="F130" s="2">
-        <v>44262</v>
+        <v>41628</v>
       </c>
       <c r="G130" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H130" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
       <c r="B131" s="1">
         <v>130</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
         <v>152</v>
       </c>
       <c r="F131" s="2">
-        <v>41628</v>
+        <v>42045</v>
       </c>
       <c r="G131" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H131" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="1"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
       <c r="B132" s="1">
         <v>131</v>
       </c>
       <c r="C132">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
         <v>153</v>
       </c>
       <c r="F132" s="2">
-        <v>42045</v>
+        <v>42533</v>
       </c>
       <c r="G132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H132" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="1"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
       <c r="B133" s="1">
         <v>132</v>
       </c>
       <c r="C133">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D133" t="s">
         <v>154</v>
       </c>
+      <c r="E133" t="s">
+        <v>228</v>
+      </c>
       <c r="F133" s="2">
-        <v>42533</v>
+        <v>43055</v>
       </c>
       <c r="G133" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H133" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="1"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
       <c r="B134" s="1">
         <v>133</v>
       </c>
       <c r="C134">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D134" t="s">
         <v>155</v>
       </c>
-      <c r="E134" t="s">
-        <v>229</v>
-      </c>
       <c r="F134" s="2">
-        <v>43055</v>
+        <v>43252</v>
       </c>
       <c r="G134" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H134" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="1"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
       <c r="B135" s="1">
         <v>134</v>
       </c>
       <c r="C135">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D135" t="s">
         <v>156</v>
       </c>
+      <c r="E135" t="s">
+        <v>229</v>
+      </c>
       <c r="F135" s="2">
-        <v>43252</v>
+        <v>43397</v>
       </c>
       <c r="G135" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H135" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="1"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
       <c r="B136" s="1">
         <v>135</v>
       </c>
       <c r="C136">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D136" t="s">
         <v>157</v>
@@ -4999,22 +5017,22 @@
         <v>230</v>
       </c>
       <c r="F136" s="2">
-        <v>43397</v>
+        <v>44126</v>
       </c>
       <c r="G136" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H136" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="1"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
       <c r="B137" s="1">
         <v>136</v>
       </c>
       <c r="C137">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D137" t="s">
         <v>158</v>
@@ -5023,54 +5041,30 @@
         <v>231</v>
       </c>
       <c r="F137" s="2">
-        <v>44126</v>
+        <v>44188</v>
       </c>
       <c r="G137" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
       <c r="H137" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1">
-        <v>137</v>
-      </c>
-      <c r="C138">
-        <v>94</v>
-      </c>
-      <c r="D138" t="s">
-        <v>159</v>
-      </c>
-      <c r="E138" t="s">
-        <v>232</v>
-      </c>
-      <c r="F138" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G138" t="s">
-        <v>284</v>
-      </c>
-      <c r="H138" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A79:A106"/>
-    <mergeCell ref="A108:A120"/>
-    <mergeCell ref="A121:A130"/>
-    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="A107:A119"/>
+    <mergeCell ref="A120:A129"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="A78:A105"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/arxiv_paper_df_by_theme.xlsx
+++ b/arxiv_paper_df_by_theme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Downloads\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D442E5-A126-466B-B8C8-68673D4D7CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA7379E-BA32-45E1-8E77-F27824DC4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="2790" windowWidth="18840" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="555" windowWidth="26790" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1872,11 +1872,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3833,19 +3838,22 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>143</v>
+      </c>
+      <c r="E85" t="s">
+        <v>224</v>
       </c>
       <c r="F85" s="2">
-        <v>43720</v>
+        <v>43517</v>
       </c>
       <c r="G85" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="H85" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3854,19 +3862,19 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2">
-        <v>43790</v>
+        <v>43720</v>
       </c>
       <c r="G86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H86" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3875,19 +3883,19 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2">
-        <v>43897</v>
+        <v>43790</v>
       </c>
       <c r="G87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H87" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3896,19 +3904,19 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2">
-        <v>43921</v>
+        <v>43897</v>
       </c>
       <c r="G88" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H88" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3917,22 +3925,19 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
-      </c>
-      <c r="E89" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="F89" s="2">
-        <v>43941</v>
+        <v>43921</v>
       </c>
       <c r="G89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3941,22 +3946,22 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F90" s="2">
-        <v>44196</v>
+        <v>43941</v>
       </c>
       <c r="G90" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H90" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3965,22 +3970,22 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F91" s="2">
-        <v>44201</v>
+        <v>44196</v>
       </c>
       <c r="G91" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3989,22 +3994,22 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F92" s="2">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="G92" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H92" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4013,22 +4018,22 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E93" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="F93" s="2">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="G93" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H93" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4037,19 +4042,22 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="E94" t="s">
+        <v>174</v>
       </c>
       <c r="F94" s="2">
-        <v>44632</v>
+        <v>44362</v>
       </c>
       <c r="G94" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H94" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4058,22 +4066,19 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
-      </c>
-      <c r="E95" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="F95" s="2">
-        <v>44641</v>
+        <v>44632</v>
       </c>
       <c r="G95" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H95" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4082,22 +4087,22 @@
         <v>95</v>
       </c>
       <c r="C96">
+        <v>114</v>
+      </c>
+      <c r="D96" t="s">
         <v>116</v>
       </c>
-      <c r="D96" t="s">
-        <v>117</v>
-      </c>
       <c r="E96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F96" s="2">
-        <v>44706</v>
+        <v>44641</v>
       </c>
       <c r="G96" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H96" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4106,22 +4111,22 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F97" s="2">
-        <v>44716</v>
+        <v>44706</v>
       </c>
       <c r="G97" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H97" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4130,22 +4135,22 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E98" t="s">
         <v>213</v>
       </c>
       <c r="F98" s="2">
-        <v>44831</v>
+        <v>44716</v>
       </c>
       <c r="G98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H98" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4154,22 +4159,22 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F99" s="2">
-        <v>44953</v>
+        <v>44831</v>
       </c>
       <c r="G99" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4178,19 +4183,22 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="E100" t="s">
+        <v>214</v>
       </c>
       <c r="F100" s="2">
-        <v>44961</v>
+        <v>44953</v>
       </c>
       <c r="G100" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H100" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4199,22 +4207,19 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D101" t="s">
-        <v>122</v>
-      </c>
-      <c r="E101" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="F101" s="2">
-        <v>45034</v>
+        <v>44961</v>
       </c>
       <c r="G101" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H101" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4223,19 +4228,22 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D102" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="E102" t="s">
+        <v>215</v>
       </c>
       <c r="F102" s="2">
-        <v>45064</v>
+        <v>45034</v>
       </c>
       <c r="G102" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H102" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4244,19 +4252,19 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F103" s="2">
-        <v>45069</v>
+        <v>45064</v>
       </c>
       <c r="G103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H103" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4265,22 +4273,19 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="F104" s="2">
         <v>45069</v>
       </c>
       <c r="G104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H104" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4289,89 +4294,92 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="E105" t="s">
+        <v>190</v>
       </c>
       <c r="F105" s="2">
-        <v>45075</v>
+        <v>45069</v>
       </c>
       <c r="G105" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="H105" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A106" s="3"/>
       <c r="B106" s="1">
         <v>105</v>
       </c>
       <c r="C106">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F106" s="2">
-        <v>42984</v>
+        <v>45075</v>
       </c>
       <c r="G106" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H106" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>21</v>
+      <c r="A107" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
       </c>
       <c r="C107">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
-      </c>
-      <c r="E107" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="F107" s="2">
-        <v>41627</v>
+        <v>42984</v>
       </c>
       <c r="G107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H107" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="A108" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B108" s="1">
         <v>107</v>
       </c>
       <c r="C108">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="E108" t="s">
+        <v>216</v>
       </c>
       <c r="F108" s="2">
-        <v>42936</v>
+        <v>41627</v>
       </c>
       <c r="G108" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H108" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4380,22 +4388,19 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D109" t="s">
-        <v>130</v>
-      </c>
-      <c r="E109" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="F109" s="2">
-        <v>43014</v>
+        <v>42936</v>
       </c>
       <c r="G109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H109" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4404,22 +4409,22 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E110" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F110" s="2">
-        <v>43070</v>
+        <v>43014</v>
       </c>
       <c r="G110" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4428,22 +4433,22 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F111" s="2">
-        <v>43157</v>
+        <v>43070</v>
       </c>
       <c r="G111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H111" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4452,19 +4457,22 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D112" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="E112" t="s">
+        <v>219</v>
       </c>
       <c r="F112" s="2">
-        <v>43929</v>
+        <v>43157</v>
       </c>
       <c r="G112" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H112" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4473,22 +4481,19 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
-      </c>
-      <c r="E113" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2">
-        <v>44078</v>
+        <v>43929</v>
       </c>
       <c r="G113" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H113" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4497,19 +4502,22 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D114" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="E114" t="s">
+        <v>220</v>
       </c>
       <c r="F114" s="2">
-        <v>44462</v>
+        <v>44078</v>
       </c>
       <c r="G114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H114" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4518,19 +4526,19 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F115" s="2">
-        <v>44481</v>
+        <v>44462</v>
       </c>
       <c r="G115" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H115" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4539,22 +4547,19 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D116" t="s">
-        <v>137</v>
-      </c>
-      <c r="E116" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="F116" s="2">
-        <v>44562</v>
+        <v>44481</v>
       </c>
       <c r="G116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H116" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4563,22 +4568,22 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F117" s="2">
-        <v>44713</v>
+        <v>44562</v>
       </c>
       <c r="G117" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H117" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4587,22 +4592,22 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E118" t="s">
         <v>213</v>
       </c>
       <c r="F118" s="2">
-        <v>44797</v>
+        <v>44713</v>
       </c>
       <c r="G118" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H118" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4611,72 +4616,72 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E119" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F119" s="2">
-        <v>44951</v>
+        <v>44797</v>
       </c>
       <c r="G119" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H119" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A120" s="3"/>
       <c r="B120" s="1">
         <v>119</v>
       </c>
       <c r="C120">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F120" s="2">
-        <v>43466</v>
+        <v>44951</v>
       </c>
       <c r="G120" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H120" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="A121" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B121" s="1">
         <v>120</v>
       </c>
       <c r="C121">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F121" s="2">
-        <v>43514</v>
+        <v>43466</v>
       </c>
       <c r="G121" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H121" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4685,22 +4690,22 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E122" t="s">
         <v>224</v>
       </c>
       <c r="F122" s="2">
-        <v>43517</v>
+        <v>43514</v>
       </c>
       <c r="G122" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H122" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5052,19 +5057,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A107:A119"/>
-    <mergeCell ref="A120:A129"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A57"/>
+    <mergeCell ref="A108:A120"/>
+    <mergeCell ref="A121:A129"/>
     <mergeCell ref="A130:A137"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A70:A77"/>
-    <mergeCell ref="A78:A105"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A57"/>
+    <mergeCell ref="A78:A106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
